--- a/Silva Villegas Mario 20212.xlsx
+++ b/Silva Villegas Mario 20212.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="369">
   <si>
     <t>NC</t>
   </si>
@@ -767,6 +767,9 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LARA</t>
+  </si>
+  <si>
     <t>MEDRANO</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
     <t>VALIENTE</t>
   </si>
   <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -833,6 +839,9 @@
     <t>SALOMON</t>
   </si>
   <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
     <t>ALEXIS YAIR</t>
   </si>
   <si>
@@ -887,6 +896,9 @@
     <t>salhomartinez@gmail.com</t>
   </si>
   <si>
+    <t>villars789@gmail.com</t>
+  </si>
+  <si>
     <t>alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -941,6 +953,9 @@
     <t>2722606082</t>
   </si>
   <si>
+    <t>2721691246</t>
+  </si>
+  <si>
     <t>2721811447</t>
   </si>
   <si>
@@ -1010,6 +1025,9 @@
     <t>SALOMÓN DE JESUS EVARISTO</t>
   </si>
   <si>
+    <t>LETICIA VILLAR HERNANDEZ</t>
+  </si>
+  <si>
     <t>ALEJANDRO MARTÍNEZ AMEZCUA</t>
   </si>
   <si>
@@ -1049,6 +1067,9 @@
     <t>salomartinez9610@gmail.com</t>
   </si>
   <si>
+    <t>luna13.notaria@gmail.com</t>
+  </si>
+  <si>
     <t>Alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -1083,6 +1104,9 @@
   </si>
   <si>
     <t>2721843803</t>
+  </si>
+  <si>
+    <t>2722328582</t>
   </si>
   <si>
     <t>2722290436</t>
@@ -2570,7 +2594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2628,22 +2652,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2657,25 +2681,25 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2689,25 +2713,25 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2721,28 +2745,28 @@
         <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2756,25 +2780,25 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J6" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2794,16 +2818,16 @@
         <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2817,28 +2841,28 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J8" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2855,25 +2879,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2890,22 +2914,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -2922,22 +2946,22 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J11" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2954,25 +2978,25 @@
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J12" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2980,69 +3004,63 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920067</v>
+        <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J13" t="s">
-        <v>308</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920068</v>
+        <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="J14" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3050,31 +3068,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920069</v>
+        <v>19330051920068</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="G15" t="s">
+        <v>314</v>
       </c>
       <c r="H15" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="J15" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3082,63 +3103,63 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="J16" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>18330051920078</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -3146,25 +3167,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920075</v>
+        <v>18330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="I18" t="s">
+        <v>353</v>
+      </c>
+      <c r="J18" t="s">
+        <v>367</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -3172,36 +3199,62 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
+        <v>19330051920075</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" t="s">
+        <v>318</v>
+      </c>
+      <c r="H19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>19330051920081</v>
       </c>
-      <c r="B19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
         <v>319</v>
       </c>
-      <c r="H19" t="s">
-        <v>337</v>
-      </c>
-      <c r="I19" t="s">
-        <v>347</v>
-      </c>
-      <c r="J19" t="s">
-        <v>360</v>
-      </c>
-      <c r="K19">
+      <c r="G20" t="s">
+        <v>324</v>
+      </c>
+      <c r="H20" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" t="s">
+        <v>354</v>
+      </c>
+      <c r="J20" t="s">
+        <v>368</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>

--- a/Silva Villegas Mario 20212.xlsx
+++ b/Silva Villegas Mario 20212.xlsx
@@ -2036,7 +2036,7 @@
         <v>163</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3030,6 +3030,9 @@
       <c r="J13" t="s">
         <v>363</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
